--- a/files/CWU-7 SA schedules.xlsx
+++ b/files/CWU-7 SA schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iptoft\Downloads\CA IRDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80F5443-2FEC-4677-ADDA-4A4FA79DACBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18111C-FE65-4C3C-8F86-466F38DEAFC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E9C48C6-68AC-4F38-9C54-99E186F64FF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{1E9C48C6-68AC-4F38-9C54-99E186F64FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sch A" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1572,6 +1572,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1584,46 +1593,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,6 +1607,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1647,46 +1638,61 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1905,9 +1911,9 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="0" y="681990"/>
-              <a:ext cx="1609609" cy="246308"/>
-              <a:chOff x="59635" y="859321"/>
+              <a:off x="0" y="704850"/>
+              <a:ext cx="1498738" cy="254690"/>
+              <a:chOff x="59635" y="859320"/>
               <a:chExt cx="1498738" cy="254690"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -1927,7 +1933,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="59635" y="859321"/>
+                <a:off x="59635" y="859320"/>
                 <a:ext cx="612913" cy="247650"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -1993,7 +1999,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="767798" y="866361"/>
+                <a:off x="767798" y="866360"/>
                 <a:ext cx="790575" cy="247650"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2082,10 +2088,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="59635" y="855178"/>
-              <a:ext cx="1495425" cy="251378"/>
-              <a:chOff x="59635" y="859319"/>
-              <a:chExt cx="1498738" cy="254691"/>
+              <a:off x="59635" y="855180"/>
+              <a:ext cx="1495425" cy="251377"/>
+              <a:chOff x="59635" y="859317"/>
+              <a:chExt cx="1498738" cy="254692"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2104,7 +2110,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="59635" y="859319"/>
+                <a:off x="59635" y="859317"/>
                 <a:ext cx="612913" cy="247650"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2170,7 +2176,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="767798" y="866360"/>
+                <a:off x="767798" y="866359"/>
                 <a:ext cx="790575" cy="247650"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3630,7 +3636,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="0" y="28898850"/>
+              <a:off x="0" y="29079825"/>
               <a:ext cx="1495425" cy="254690"/>
               <a:chOff x="59635" y="859321"/>
               <a:chExt cx="1498738" cy="254690"/>
@@ -5004,13 +5010,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>885825</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>64190</xdr:rowOff>
         </xdr:to>
         <xdr:grpSp>
@@ -5026,7 +5032,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="0" y="11553825"/>
+              <a:off x="0" y="11372850"/>
               <a:ext cx="1495425" cy="254690"/>
               <a:chOff x="59635" y="859321"/>
               <a:chExt cx="1498738" cy="254690"/>
@@ -5829,7 +5835,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5843,15 +5849,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -5990,12 +5996,12 @@
       <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="32">
         <f>SUM(E7:E16)</f>
         <v>0</v>
@@ -6084,31 +6090,31 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6116,99 +6122,103 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="32">
-        <f>SUM(E8:E9)</f>
-        <v>0</v>
-      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="32">
         <f>SUM(F8:F9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="32">
+        <f>SUM(G8:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="C16" s="3"/>
     </row>
@@ -6287,41 +6297,49 @@
       <c r="C28" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="59" t="s">
         <v>8</v>
       </c>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="31"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="34">
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="76">
         <f>SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="34">
-        <f>SUM(E29:E30)</f>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76">
+        <f>SUM(F29:F30)</f>
         <v>0</v>
       </c>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -6341,54 +6359,58 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="59"/>
+      <c r="E36" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="30"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="34">
-        <f>SUM(E37:E38)</f>
-        <v>0</v>
-      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="34">
         <f>SUM(F37:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="34">
+        <f>SUM(G37:G38)</f>
         <v>0</v>
       </c>
     </row>
@@ -6502,13 +6524,13 @@
       <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="32">
         <f>SUM(F47:F54)</f>
         <v>0</v>
@@ -6536,54 +6558,58 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="59"/>
+      <c r="F63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="30"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="32">
-        <f>SUM(E64:E65)</f>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="78">
+        <f>SUM(F64:F65)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="32">
-        <f>SUM(F64:F65)</f>
+      <c r="G66" s="32">
+        <f>SUM(G64:G65)</f>
         <v>0</v>
       </c>
     </row>
@@ -6646,13 +6672,13 @@
       <c r="G73" s="30"/>
     </row>
     <row r="74" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="32">
         <f>SUM(F72:F73)</f>
         <v>0</v>
@@ -6723,13 +6749,13 @@
       <c r="G84" s="30"/>
     </row>
     <row r="85" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
       <c r="F85" s="32">
         <f>SUM(F83:F84)</f>
         <v>0</v>
@@ -6761,130 +6787,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="59"/>
+      <c r="F91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="30"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
       <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
+      <c r="A93" s="45"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="30"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
       <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="32">
-        <f>SUM(E92:E93)</f>
-        <v>0</v>
-      </c>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
       <c r="F94" s="32">
         <f>SUM(F92:F93)</f>
         <v>0</v>
       </c>
+      <c r="G94" s="32">
+        <f>SUM(G92:G93)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:6" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="50"/>
+      <c r="C105" s="59"/>
       <c r="D105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="59"/>
+    </row>
+    <row r="106" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="52"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
-      <c r="F106" s="31"/>
-    </row>
-    <row r="107" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+    </row>
+    <row r="107" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="52"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="30"/>
       <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
-    </row>
-    <row r="108" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+    </row>
+    <row r="108" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="52"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
-      <c r="F108" s="31"/>
-    </row>
-    <row r="109" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="49" t="s">
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+    </row>
+    <row r="109" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="36">
         <f>SUM(D106:D108)</f>
         <v>0</v>
@@ -6893,84 +6927,118 @@
         <f>SUM(E106:E108)</f>
         <v>0</v>
       </c>
-      <c r="F109" s="31"/>
-    </row>
-    <row r="110" spans="1:6" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+    </row>
+    <row r="110" spans="1:7" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
     </row>
-    <row r="112" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="55" t="s">
+    <row r="114" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="56"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="6" t="s">
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="59"/>
+      <c r="F114" s="59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="61" t="s">
+      <c r="G114" s="59"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="62"/>
-      <c r="C115" s="63"/>
-      <c r="D115" s="53">
-        <f>+D109+E94+F85+F74+E66+F55+E39+D31+E10</f>
+      <c r="B115" s="80"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="79">
+        <f>+D109+F94+F85+F74+F66+F55+F39+D31+F10</f>
         <v>0</v>
       </c>
-      <c r="E115" s="53">
-        <f>+E109+F94+G85+G74+F66+G55+F39+E31+F10</f>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79">
+        <f>+E109+G94+G85+G74+G66+G55+G39+F31+G10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="58" t="s">
+      <c r="G115" s="79"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B116" s="59"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="81"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E115:E116"/>
+  <mergeCells count="46">
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E116"/>
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A116:C116"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A109:C109"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="3" orientation="landscape" r:id="rId1"/>
@@ -7459,18 +7527,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -7543,12 +7611,12 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="32">
         <f>SUM(E6:E7)</f>
         <v>0</v>
@@ -7557,11 +7625,11 @@
         <f>SUM(F6:F7)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="32">
         <f>SUM(J6:J7)</f>
         <v>0</v>
@@ -7608,11 +7676,11 @@
       <c r="F14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
@@ -7621,9 +7689,9 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="52"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
@@ -7632,9 +7700,9 @@
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="52"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -7775,16 +7843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -7877,14 +7945,14 @@
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="32">
         <f>SUM(G6:G10)</f>
         <v>0</v>
@@ -7990,16 +8058,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -8092,14 +8160,14 @@
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="34">
         <f>SUM(G6:G10)</f>
         <v>0</v>
@@ -8184,10 +8252,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8202,16 +8270,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -8248,41 +8316,41 @@
       <c r="E6" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="68" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
@@ -8365,15 +8433,15 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="32">
         <f>SUM(H9:H16)</f>
         <v>0</v>
@@ -8404,49 +8472,57 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="E25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="77"/>
     </row>
     <row r="28" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="32">
-        <f>SUM(F26:F27)</f>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="78">
+        <f>SUM(H26:H27)</f>
         <v>0</v>
       </c>
     </row>
@@ -8467,247 +8543,236 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="68" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="69"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="65" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="81" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="69"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="74" t="s">
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="70"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="81" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="70"/>
-    </row>
-    <row r="37" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="69"/>
+    </row>
+    <row r="36" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="32">
-        <f>SUM(F37:F38)</f>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="32">
+        <f>SUM(H36:H37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-    </row>
-    <row r="42" spans="1:6" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+    </row>
+    <row r="41" spans="1:8" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="42" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+    <row r="44" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B44" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="65" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68" t="s">
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="70"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="70"/>
-    </row>
-    <row r="47" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="40"/>
-    </row>
-    <row r="50" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
+    <row r="45" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="32">
-        <f>SUM(F47:F49)</f>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="32">
+        <f>SUM(H45:H47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
+    <row r="53" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="68" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="70"/>
-    </row>
-    <row r="57" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76" t="s">
+    <row r="54" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="34">
-        <f>+F50+F39+F28+H17</f>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="34">
+        <f>+H48+H38+H28+H17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -8715,6 +8780,19 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8723,7 +8801,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="20" max="16383" man="1"/>
-    <brk id="40" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8870,13 +8948,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8892,13 +8970,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>95250</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>885825</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8932,14 +9010,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9040,12 +9118,12 @@
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="34">
         <f>SUM(E6:E13)</f>
         <v>0</v>
@@ -9143,15 +9221,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9236,14 +9314,14 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="32">
         <f>SUM(G6:G10)</f>
         <v>0</v>
